--- a/biology/Origine et évolution du vivant/Briovérien/Briovérien.xlsx
+++ b/biology/Origine et évolution du vivant/Briovérien/Briovérien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Briov%C3%A9rien</t>
+          <t>Briovérien</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Briovérien est une subdivision de l'échelle des temps géologiques, qui regroupe  l'Édiacarien et le Cryogénien. Son stratotype est caractérisé par  Saint-Lô (Briovera en latin).
-Cette période correspond à l'orogénèse cadomienne, et on divise la période en Briovérien inférieur (ca. -670 Ma à -590 Ma) et en Briovérien supérieur (ca. -590 Ma à -540 Ma). La première période correspond grossièrement à une phase de magmatisme, la seconde à une phase sédimentaire anté-ordovicienne. Le sommet du Briovérien supérieur est d'âge Fortunien, soit le premier étage du Cambrien. La fin du Briovérien est postérieure à 540 millions d'années, ce qui permet de lui attribuer un âge cambrien basal. Cette division du Précambrien, utilisée pour le Massif armoricain, n'est donc plus valide[1].
+Cette période correspond à l'orogénèse cadomienne, et on divise la période en Briovérien inférieur (ca. -670 Ma à -590 Ma) et en Briovérien supérieur (ca. -590 Ma à -540 Ma). La première période correspond grossièrement à une phase de magmatisme, la seconde à une phase sédimentaire anté-ordovicienne. Le sommet du Briovérien supérieur est d'âge Fortunien, soit le premier étage du Cambrien. La fin du Briovérien est postérieure à 540 millions d'années, ce qui permet de lui attribuer un âge cambrien basal. Cette division du Précambrien, utilisée pour le Massif armoricain, n'est donc plus valide.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Briov%C3%A9rien</t>
+          <t>Briovérien</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Divisions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Briovérien inférieur repose en discordance sur un socle ancien dit « pentévrien » (méso- à néoprotérozoïque inférieur). Le Briovérien de Bretagne centrale et du bocage normand est interprété comme le produit de l’érosion
-du segment nord-armoricain de la chaîne cadomienne déposé dans des bassins d’avant-pays en domaine continental plus ou moins aminci et instable[2].
+du segment nord-armoricain de la chaîne cadomienne déposé dans des bassins d’avant-pays en domaine continental plus ou moins aminci et instable.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Briov%C3%A9rien</t>
+          <t>Briovérien</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Roches associées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sédiments anté-ordoviciens proviennent en partie du démantèlement de la chaîne cadomienne. Ils sont largement présents dans le Massif armoricain sous la forme de grauwackes et de schistes.
-Le Briovérien inférieur, volcano-sédimentaire, est bien représenté en Bretagne septentrionale (région de Lamballe - Saint-Brieuc) et en Normandie (région de Coutances - Saint-Lô). Il est caractérisé par la présence fréquente de bancs de cherts carbonés (phtanites) interstratifiés dans l'épisode sédimentaire des formations de Lamballe et de Saint-Lô, et par le grand développement des volcanites dans la partie basale (formation de Lanvollon). Le Briovérien supérieur constitue l'essentiel du socle protérozoïque de Bretagne centrale et de Basse-Normandie (Formations de La Laize et de Granville). Les roches sont généralement des formations flyschoïdes rythmiques et à turbidites, de type supérieur gréso-schisteux, tandis que les épisodes volcaniques sont très peu développés[3].
+Le Briovérien inférieur, volcano-sédimentaire, est bien représenté en Bretagne septentrionale (région de Lamballe - Saint-Brieuc) et en Normandie (région de Coutances - Saint-Lô). Il est caractérisé par la présence fréquente de bancs de cherts carbonés (phtanites) interstratifiés dans l'épisode sédimentaire des formations de Lamballe et de Saint-Lô, et par le grand développement des volcanites dans la partie basale (formation de Lanvollon). Le Briovérien supérieur constitue l'essentiel du socle protérozoïque de Bretagne centrale et de Basse-Normandie (Formations de La Laize et de Granville). Les roches sont généralement des formations flyschoïdes rythmiques et à turbidites, de type supérieur gréso-schisteux, tandis que les épisodes volcaniques sont très peu développés.
 </t>
         </is>
       </c>
